--- a/docs/测试开发实战课程演练大纲V1.7.xlsx
+++ b/docs/测试开发实战课程演练大纲V1.7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyPython\Nahsor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{301251FF-68EB-416F-AEF7-D3B14DC67684}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0DD59070-A917-407D-8016-35712170C139}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="1455" windowWidth="28200" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="性能" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2826,7 +2826,82 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2835,16 +2910,43 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2853,95 +2955,164 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2949,12 +3120,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2962,9 +3127,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2976,211 +3138,64 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3191,21 +3206,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4346,8 +4346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9523C019-ABB1-4B24-B70C-F81CEA5152B5}">
   <dimension ref="A1:IV271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4362,139 +4362,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
     </row>
     <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="157" t="s">
+      <c r="B4" s="131"/>
+      <c r="C4" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
     </row>
     <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="160" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
     </row>
     <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="159"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
     </row>
     <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
     </row>
     <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
     </row>
     <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="148"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
     </row>
     <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="142" t="s">
+      <c r="A12" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
     </row>
     <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
     </row>
     <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
     </row>
     <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="113" t="s">
@@ -4514,10 +4514,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="145">
+      <c r="A17" s="147">
         <v>1</v>
       </c>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="142" t="s">
         <v>219</v>
       </c>
       <c r="C17" s="84" t="s">
@@ -4531,8 +4531,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="146"/>
-      <c r="B18" s="128"/>
+      <c r="A18" s="148"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="84" t="s">
         <v>220</v>
       </c>
@@ -4544,8 +4544,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="146"/>
-      <c r="B19" s="128"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="84" t="s">
         <v>221</v>
       </c>
@@ -4557,8 +4557,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="146"/>
-      <c r="B20" s="128"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="117" t="s">
         <v>222</v>
       </c>
@@ -4570,8 +4570,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="147"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="149"/>
+      <c r="B21" s="142"/>
       <c r="C21" s="117" t="s">
         <v>223</v>
       </c>
@@ -4583,10 +4583,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="138">
+      <c r="A22" s="125">
         <v>2</v>
       </c>
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="142" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="117" t="s">
@@ -4600,8 +4600,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="138"/>
-      <c r="B23" s="128"/>
+      <c r="A23" s="125"/>
+      <c r="B23" s="142"/>
       <c r="C23" s="117" t="s">
         <v>225</v>
       </c>
@@ -4613,8 +4613,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="138"/>
-      <c r="B24" s="128"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="142"/>
       <c r="C24" s="117" t="s">
         <v>33</v>
       </c>
@@ -4626,10 +4626,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="125">
+      <c r="A25" s="150">
         <v>4</v>
       </c>
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="151" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="51" t="s">
@@ -4643,8 +4643,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="125"/>
-      <c r="B26" s="126"/>
+      <c r="A26" s="150"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="51" t="s">
         <v>38</v>
       </c>
@@ -4656,8 +4656,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="125"/>
-      <c r="B27" s="126"/>
+      <c r="A27" s="150"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="51" t="s">
         <v>39</v>
       </c>
@@ -4669,8 +4669,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="125"/>
-      <c r="B28" s="126"/>
+      <c r="A28" s="150"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="51" t="s">
         <v>45</v>
       </c>
@@ -4682,8 +4682,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="125"/>
-      <c r="B29" s="126"/>
+      <c r="A29" s="150"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="51" t="s">
         <v>40</v>
       </c>
@@ -4695,10 +4695,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="125">
+      <c r="A30" s="150">
         <v>5</v>
       </c>
-      <c r="B30" s="126" t="s">
+      <c r="B30" s="151" t="s">
         <v>226</v>
       </c>
       <c r="C30" s="53" t="s">
@@ -4712,8 +4712,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="125"/>
-      <c r="B31" s="126"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="69" t="s">
         <v>228</v>
       </c>
@@ -4725,8 +4725,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="125"/>
-      <c r="B32" s="126"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="119" t="s">
         <v>229</v>
       </c>
@@ -4738,8 +4738,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="125"/>
-      <c r="B33" s="126"/>
+      <c r="A33" s="150"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="69" t="s">
         <v>230</v>
       </c>
@@ -4751,10 +4751,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="242">
+      <c r="A34" s="155">
         <v>6</v>
       </c>
-      <c r="B34" s="246" t="s">
+      <c r="B34" s="152" t="s">
         <v>262</v>
       </c>
       <c r="C34" s="51" t="s">
@@ -4768,8 +4768,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="249"/>
-      <c r="B35" s="247"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="153"/>
       <c r="C35" s="51" t="s">
         <v>232</v>
       </c>
@@ -4781,8 +4781,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="249"/>
-      <c r="B36" s="247"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="153"/>
       <c r="C36" s="51" t="s">
         <v>233</v>
       </c>
@@ -4794,8 +4794,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="249"/>
-      <c r="B37" s="247"/>
+      <c r="A37" s="156"/>
+      <c r="B37" s="153"/>
       <c r="C37" s="121" t="s">
         <v>253</v>
       </c>
@@ -4807,8 +4807,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="249"/>
-      <c r="B38" s="247"/>
+      <c r="A38" s="156"/>
+      <c r="B38" s="153"/>
       <c r="C38" s="51" t="s">
         <v>234</v>
       </c>
@@ -4820,8 +4820,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="249"/>
-      <c r="B39" s="247"/>
+      <c r="A39" s="156"/>
+      <c r="B39" s="153"/>
       <c r="C39" s="53" t="s">
         <v>235</v>
       </c>
@@ -4833,8 +4833,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="250"/>
-      <c r="B40" s="248"/>
+      <c r="A40" s="157"/>
+      <c r="B40" s="154"/>
       <c r="C40" s="53" t="s">
         <v>304</v>
       </c>
@@ -4846,10 +4846,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="138">
+      <c r="A41" s="125">
         <v>7</v>
       </c>
-      <c r="B41" s="130" t="s">
+      <c r="B41" s="163" t="s">
         <v>264</v>
       </c>
       <c r="C41" s="119" t="s">
@@ -4863,8 +4863,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="138"/>
-      <c r="B42" s="130"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="163"/>
       <c r="C42" s="14" t="s">
         <v>236</v>
       </c>
@@ -4876,10 +4876,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="138">
+      <c r="A43" s="125">
         <v>8</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="163" t="s">
         <v>265</v>
       </c>
       <c r="C43" s="84" t="s">
@@ -4893,8 +4893,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="138"/>
-      <c r="B44" s="130"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="163"/>
       <c r="C44" s="84" t="s">
         <v>239</v>
       </c>
@@ -4906,8 +4906,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="138"/>
-      <c r="B45" s="130"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="84" t="s">
         <v>240</v>
       </c>
@@ -4919,8 +4919,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="138"/>
-      <c r="B46" s="130"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="163"/>
       <c r="C46" s="84" t="s">
         <v>244</v>
       </c>
@@ -4932,10 +4932,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="125">
+      <c r="A47" s="150">
         <v>9</v>
       </c>
-      <c r="B47" s="124" t="s">
+      <c r="B47" s="167" t="s">
         <v>266</v>
       </c>
       <c r="C47" s="51" t="s">
@@ -4949,8 +4949,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="125"/>
-      <c r="B48" s="124"/>
+      <c r="A48" s="150"/>
+      <c r="B48" s="167"/>
       <c r="C48" s="51" t="s">
         <v>242</v>
       </c>
@@ -4962,8 +4962,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="125"/>
-      <c r="B49" s="124"/>
+      <c r="A49" s="150"/>
+      <c r="B49" s="167"/>
       <c r="C49" s="51" t="s">
         <v>243</v>
       </c>
@@ -4975,10 +4975,10 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="126" t="s">
+      <c r="A50" s="151" t="s">
         <v>263</v>
       </c>
-      <c r="B50" s="126" t="s">
+      <c r="B50" s="151" t="s">
         <v>267</v>
       </c>
       <c r="C50" s="51" t="s">
@@ -4992,8 +4992,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="126"/>
-      <c r="B51" s="126"/>
+      <c r="A51" s="151"/>
+      <c r="B51" s="151"/>
       <c r="C51" s="51" t="s">
         <v>246</v>
       </c>
@@ -5005,10 +5005,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="125">
+      <c r="A52" s="150">
         <v>11</v>
       </c>
-      <c r="B52" s="131" t="s">
+      <c r="B52" s="165" t="s">
         <v>268</v>
       </c>
       <c r="C52" s="51" t="s">
@@ -5022,8 +5022,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="125"/>
-      <c r="B53" s="131"/>
+      <c r="A53" s="150"/>
+      <c r="B53" s="165"/>
       <c r="C53" s="51" t="s">
         <v>248</v>
       </c>
@@ -5035,8 +5035,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="125"/>
-      <c r="B54" s="131"/>
+      <c r="A54" s="150"/>
+      <c r="B54" s="165"/>
       <c r="C54" s="51" t="s">
         <v>269</v>
       </c>
@@ -5048,8 +5048,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="125"/>
-      <c r="B55" s="131"/>
+      <c r="A55" s="150"/>
+      <c r="B55" s="165"/>
       <c r="C55" s="51" t="s">
         <v>249</v>
       </c>
@@ -5061,8 +5061,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="125"/>
-      <c r="B56" s="131"/>
+      <c r="A56" s="150"/>
+      <c r="B56" s="165"/>
       <c r="C56" s="51" t="s">
         <v>250</v>
       </c>
@@ -5074,10 +5074,10 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="125">
+      <c r="A57" s="150">
         <v>12</v>
       </c>
-      <c r="B57" s="132" t="s">
+      <c r="B57" s="166" t="s">
         <v>270</v>
       </c>
       <c r="C57" s="51" t="s">
@@ -5091,8 +5091,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="125"/>
-      <c r="B58" s="132"/>
+      <c r="A58" s="150"/>
+      <c r="B58" s="166"/>
       <c r="C58" s="51" t="s">
         <v>252</v>
       </c>
@@ -5104,8 +5104,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="125"/>
-      <c r="B59" s="132"/>
+      <c r="A59" s="150"/>
+      <c r="B59" s="166"/>
       <c r="C59" s="51" t="s">
         <v>254</v>
       </c>
@@ -5117,8 +5117,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="125"/>
-      <c r="B60" s="132"/>
+      <c r="A60" s="150"/>
+      <c r="B60" s="166"/>
       <c r="C60" s="51" t="s">
         <v>255</v>
       </c>
@@ -5130,10 +5130,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="125">
+      <c r="A61" s="150">
         <v>13</v>
       </c>
-      <c r="B61" s="132" t="s">
+      <c r="B61" s="166" t="s">
         <v>271</v>
       </c>
       <c r="C61" s="51" t="s">
@@ -5147,8 +5147,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="125"/>
-      <c r="B62" s="132"/>
+      <c r="A62" s="150"/>
+      <c r="B62" s="166"/>
       <c r="C62" s="84" t="s">
         <v>257</v>
       </c>
@@ -5160,8 +5160,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="125"/>
-      <c r="B63" s="132"/>
+      <c r="A63" s="150"/>
+      <c r="B63" s="166"/>
       <c r="C63" s="51" t="s">
         <v>258</v>
       </c>
@@ -5173,10 +5173,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="125">
+      <c r="A64" s="150">
         <v>14</v>
       </c>
-      <c r="B64" s="126" t="s">
+      <c r="B64" s="151" t="s">
         <v>272</v>
       </c>
       <c r="C64" s="84" t="s">
@@ -5190,8 +5190,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="125"/>
-      <c r="B65" s="126"/>
+      <c r="A65" s="150"/>
+      <c r="B65" s="151"/>
       <c r="C65" s="51" t="s">
         <v>260</v>
       </c>
@@ -5203,8 +5203,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="125"/>
-      <c r="B66" s="126"/>
+      <c r="A66" s="150"/>
+      <c r="B66" s="151"/>
       <c r="C66" s="1" t="s">
         <v>273</v>
       </c>
@@ -5283,11 +5283,11 @@
       <c r="E71" s="59"/>
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="134" t="s">
+      <c r="A72" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="B72" s="135"/>
-      <c r="C72" s="136"/>
+      <c r="B72" s="159"/>
+      <c r="C72" s="160"/>
       <c r="D72" s="72" t="s">
         <v>303</v>
       </c>
@@ -5322,77 +5322,77 @@
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="127"/>
-      <c r="B77" s="137"/>
+      <c r="A77" s="161"/>
+      <c r="B77" s="162"/>
       <c r="C77" s="24"/>
       <c r="D77" s="103"/>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="127"/>
-      <c r="B78" s="137"/>
+      <c r="A78" s="161"/>
+      <c r="B78" s="162"/>
       <c r="C78" s="24"/>
       <c r="D78" s="103"/>
       <c r="E78" s="21"/>
     </row>
     <row r="79" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="127"/>
-      <c r="B79" s="137"/>
+      <c r="A79" s="161"/>
+      <c r="B79" s="162"/>
       <c r="C79" s="24"/>
       <c r="D79" s="103"/>
       <c r="E79" s="22"/>
     </row>
     <row r="80" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="127"/>
-      <c r="B80" s="137"/>
+      <c r="A80" s="161"/>
+      <c r="B80" s="162"/>
       <c r="C80" s="24"/>
       <c r="D80" s="103"/>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="127"/>
-      <c r="B81" s="137"/>
+      <c r="A81" s="161"/>
+      <c r="B81" s="162"/>
       <c r="C81" s="24"/>
       <c r="D81" s="103"/>
       <c r="E81" s="21"/>
     </row>
     <row r="82" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="127"/>
-      <c r="B82" s="137"/>
+      <c r="A82" s="161"/>
+      <c r="B82" s="162"/>
       <c r="C82" s="24"/>
       <c r="D82" s="103"/>
       <c r="E82" s="21"/>
     </row>
     <row r="83" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="127"/>
-      <c r="B83" s="137"/>
+      <c r="A83" s="161"/>
+      <c r="B83" s="162"/>
       <c r="C83" s="24"/>
       <c r="D83" s="103"/>
       <c r="E83" s="21"/>
     </row>
     <row r="84" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="127"/>
-      <c r="B84" s="137"/>
+      <c r="A84" s="161"/>
+      <c r="B84" s="162"/>
       <c r="C84" s="24"/>
       <c r="D84" s="103"/>
       <c r="E84" s="21"/>
     </row>
     <row r="85" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="127"/>
-      <c r="B85" s="137"/>
+      <c r="A85" s="161"/>
+      <c r="B85" s="162"/>
       <c r="C85" s="24"/>
       <c r="D85" s="25"/>
       <c r="E85" s="21"/>
     </row>
     <row r="86" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="127"/>
+      <c r="A86" s="161"/>
       <c r="B86" s="26"/>
       <c r="C86" s="27"/>
       <c r="D86" s="26"/>
       <c r="E86" s="26"/>
     </row>
     <row r="87" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="127"/>
+      <c r="A87" s="161"/>
       <c r="B87" s="26"/>
       <c r="C87" s="27"/>
       <c r="D87" s="26"/>
@@ -5672,81 +5672,81 @@
       <c r="E126" s="103"/>
     </row>
     <row r="127" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="127"/>
-      <c r="B127" s="133"/>
+      <c r="A127" s="161"/>
+      <c r="B127" s="164"/>
       <c r="C127" s="24"/>
-      <c r="D127" s="127"/>
-      <c r="E127" s="127"/>
+      <c r="D127" s="161"/>
+      <c r="E127" s="161"/>
     </row>
     <row r="128" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="127"/>
-      <c r="B128" s="127"/>
+      <c r="A128" s="161"/>
+      <c r="B128" s="161"/>
       <c r="C128" s="24"/>
-      <c r="D128" s="127"/>
-      <c r="E128" s="127"/>
+      <c r="D128" s="161"/>
+      <c r="E128" s="161"/>
     </row>
     <row r="129" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="127"/>
-      <c r="B129" s="133"/>
+      <c r="A129" s="161"/>
+      <c r="B129" s="164"/>
       <c r="C129" s="24"/>
-      <c r="D129" s="127"/>
-      <c r="E129" s="127"/>
+      <c r="D129" s="161"/>
+      <c r="E129" s="161"/>
     </row>
     <row r="130" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="127"/>
-      <c r="B130" s="127"/>
+      <c r="A130" s="161"/>
+      <c r="B130" s="161"/>
       <c r="C130" s="24"/>
-      <c r="D130" s="127"/>
-      <c r="E130" s="127"/>
+      <c r="D130" s="161"/>
+      <c r="E130" s="161"/>
     </row>
     <row r="131" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="127"/>
-      <c r="B131" s="127"/>
+      <c r="A131" s="161"/>
+      <c r="B131" s="161"/>
       <c r="C131" s="24"/>
-      <c r="D131" s="127"/>
-      <c r="E131" s="127"/>
+      <c r="D131" s="161"/>
+      <c r="E131" s="161"/>
     </row>
     <row r="132" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="127"/>
-      <c r="B132" s="133"/>
+      <c r="A132" s="161"/>
+      <c r="B132" s="164"/>
       <c r="C132" s="24"/>
-      <c r="D132" s="127"/>
-      <c r="E132" s="127"/>
+      <c r="D132" s="161"/>
+      <c r="E132" s="161"/>
     </row>
     <row r="133" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="127"/>
-      <c r="B133" s="127"/>
+      <c r="A133" s="161"/>
+      <c r="B133" s="161"/>
       <c r="C133" s="24"/>
-      <c r="D133" s="127"/>
-      <c r="E133" s="127"/>
+      <c r="D133" s="161"/>
+      <c r="E133" s="161"/>
     </row>
     <row r="134" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="127"/>
-      <c r="B134" s="133"/>
+      <c r="A134" s="161"/>
+      <c r="B134" s="164"/>
       <c r="C134" s="24"/>
-      <c r="D134" s="127"/>
-      <c r="E134" s="127"/>
+      <c r="D134" s="161"/>
+      <c r="E134" s="161"/>
     </row>
     <row r="135" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="127"/>
-      <c r="B135" s="127"/>
+      <c r="A135" s="161"/>
+      <c r="B135" s="161"/>
       <c r="C135" s="24"/>
-      <c r="D135" s="127"/>
-      <c r="E135" s="127"/>
+      <c r="D135" s="161"/>
+      <c r="E135" s="161"/>
     </row>
     <row r="136" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="127"/>
-      <c r="B136" s="127"/>
+      <c r="A136" s="161"/>
+      <c r="B136" s="161"/>
       <c r="C136" s="24"/>
-      <c r="D136" s="127"/>
-      <c r="E136" s="127"/>
+      <c r="D136" s="161"/>
+      <c r="E136" s="161"/>
     </row>
     <row r="137" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="103"/>
       <c r="B137" s="104"/>
       <c r="C137" s="24"/>
-      <c r="D137" s="127"/>
-      <c r="E137" s="127"/>
+      <c r="D137" s="161"/>
+      <c r="E137" s="161"/>
     </row>
     <row r="138" spans="1:5" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="33"/>
@@ -6688,6 +6688,52 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="D132:E133"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="D134:E136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:E128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="D129:E131"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A17:A21"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -6700,52 +6746,6 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:E128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="D129:E131"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="D132:E133"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="D134:E136"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A60"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6773,139 +6773,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="211"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="171"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="212"/>
-      <c r="B2" s="213"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="215"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="175"/>
     </row>
     <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="216" t="s">
+      <c r="A4" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="192"/>
-      <c r="C4" s="217" t="s">
+      <c r="B4" s="177"/>
+      <c r="C4" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
     </row>
     <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="218" t="s">
+      <c r="A5" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="219"/>
-      <c r="C5" s="222" t="s">
+      <c r="B5" s="182"/>
+      <c r="C5" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="223"/>
-      <c r="E5" s="223"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
     </row>
     <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="220"/>
-      <c r="B6" s="221"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="191" t="s">
+      <c r="A7" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="192"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
     </row>
     <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
     </row>
     <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="191" t="s">
+      <c r="A9" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="192"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
     </row>
     <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="197"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="197"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="191" t="s">
+      <c r="A11" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="192"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="192"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
     </row>
     <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="199" t="s">
+      <c r="A12" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="197"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="197"/>
-      <c r="E12" s="197"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
     </row>
     <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="200"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
     </row>
     <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="199" t="s">
+      <c r="A14" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="203"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
     </row>
     <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191" t="s">
+      <c r="A15" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="205"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="205"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
@@ -6925,10 +6925,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="207">
+      <c r="A17" s="203">
         <v>1</v>
       </c>
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="189" t="s">
         <v>219</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -6942,8 +6942,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="127"/>
-      <c r="B18" s="190"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="189"/>
       <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
@@ -6955,8 +6955,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="127"/>
-      <c r="B19" s="190"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="189"/>
       <c r="C19" s="7" t="s">
         <v>17</v>
       </c>
@@ -6968,8 +6968,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="127"/>
-      <c r="B20" s="190"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="189"/>
       <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
@@ -6981,10 +6981,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="189">
+      <c r="A21" s="188">
         <v>2</v>
       </c>
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="189" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -6998,8 +6998,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="189"/>
-      <c r="B22" s="190"/>
+      <c r="A22" s="188"/>
+      <c r="B22" s="189"/>
       <c r="C22" s="9" t="s">
         <v>32</v>
       </c>
@@ -7011,8 +7011,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="189"/>
-      <c r="B23" s="190"/>
+      <c r="A23" s="188"/>
+      <c r="B23" s="189"/>
       <c r="C23" s="9" t="s">
         <v>33</v>
       </c>
@@ -7024,10 +7024,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="145">
+      <c r="A24" s="147">
         <v>3</v>
       </c>
-      <c r="B24" s="186" t="s">
+      <c r="B24" s="205" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -7041,8 +7041,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="182"/>
-      <c r="B25" s="187"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="206"/>
       <c r="C25" s="9" t="s">
         <v>34</v>
       </c>
@@ -7054,10 +7054,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="125">
+      <c r="A26" s="150">
         <v>4</v>
       </c>
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="151" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="57" t="s">
@@ -7071,8 +7071,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="125"/>
-      <c r="B27" s="126"/>
+      <c r="A27" s="150"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="57" t="s">
         <v>38</v>
       </c>
@@ -7084,8 +7084,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="125"/>
-      <c r="B28" s="126"/>
+      <c r="A28" s="150"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="49" t="s">
         <v>39</v>
       </c>
@@ -7097,8 +7097,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="125"/>
-      <c r="B29" s="126"/>
+      <c r="A29" s="150"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="51" t="s">
         <v>45</v>
       </c>
@@ -7110,8 +7110,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="125"/>
-      <c r="B30" s="126"/>
+      <c r="A30" s="150"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="51" t="s">
         <v>40</v>
       </c>
@@ -7123,10 +7123,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="188">
+      <c r="A31" s="207">
         <v>5</v>
       </c>
-      <c r="B31" s="170" t="s">
+      <c r="B31" s="208" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="53" t="s">
@@ -7140,8 +7140,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="188"/>
-      <c r="B32" s="184"/>
+      <c r="A32" s="207"/>
+      <c r="B32" s="209"/>
       <c r="C32" s="69" t="s">
         <v>43</v>
       </c>
@@ -7153,8 +7153,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="188"/>
-      <c r="B33" s="184"/>
+      <c r="A33" s="207"/>
+      <c r="B33" s="209"/>
       <c r="C33" s="69" t="s">
         <v>44</v>
       </c>
@@ -7166,10 +7166,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="179">
+      <c r="A34" s="213">
         <v>6</v>
       </c>
-      <c r="B34" s="180" t="s">
+      <c r="B34" s="216" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="68" t="s">
@@ -7183,8 +7183,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="179"/>
-      <c r="B35" s="181"/>
+      <c r="A35" s="213"/>
+      <c r="B35" s="217"/>
       <c r="C35" s="47" t="s">
         <v>48</v>
       </c>
@@ -7196,8 +7196,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="174"/>
-      <c r="B36" s="181"/>
+      <c r="A36" s="214"/>
+      <c r="B36" s="217"/>
       <c r="C36" s="49" t="s">
         <v>49</v>
       </c>
@@ -7209,8 +7209,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="165"/>
-      <c r="B37" s="181"/>
+      <c r="A37" s="215"/>
+      <c r="B37" s="217"/>
       <c r="C37" s="61" t="s">
         <v>50</v>
       </c>
@@ -7222,10 +7222,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="145">
+      <c r="A38" s="147">
         <v>7</v>
       </c>
-      <c r="B38" s="130" t="s">
+      <c r="B38" s="163" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -7239,8 +7239,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="182"/>
-      <c r="B39" s="130"/>
+      <c r="A39" s="204"/>
+      <c r="B39" s="163"/>
       <c r="C39" s="14" t="s">
         <v>53</v>
       </c>
@@ -7252,8 +7252,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="183"/>
-      <c r="B40" s="130"/>
+      <c r="A40" s="218"/>
+      <c r="B40" s="163"/>
       <c r="C40" s="14" t="s">
         <v>54</v>
       </c>
@@ -7265,10 +7265,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="182">
+      <c r="A41" s="204">
         <v>8</v>
       </c>
-      <c r="B41" s="130" t="s">
+      <c r="B41" s="163" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="65" t="s">
@@ -7282,8 +7282,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="182"/>
-      <c r="B42" s="130"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="163"/>
       <c r="C42" s="15" t="s">
         <v>57</v>
       </c>
@@ -7295,8 +7295,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="182"/>
-      <c r="B43" s="130"/>
+      <c r="A43" s="204"/>
+      <c r="B43" s="163"/>
       <c r="C43" s="15" t="s">
         <v>58</v>
       </c>
@@ -7308,10 +7308,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="125">
+      <c r="A44" s="150">
         <v>9</v>
       </c>
-      <c r="B44" s="170" t="s">
+      <c r="B44" s="208" t="s">
         <v>59</v>
       </c>
       <c r="C44" s="47" t="s">
@@ -7325,8 +7325,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="125"/>
-      <c r="B45" s="184"/>
+      <c r="A45" s="150"/>
+      <c r="B45" s="209"/>
       <c r="C45" s="47" t="s">
         <v>61</v>
       </c>
@@ -7338,8 +7338,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="125"/>
-      <c r="B46" s="184"/>
+      <c r="A46" s="150"/>
+      <c r="B46" s="209"/>
       <c r="C46" s="47" t="s">
         <v>62</v>
       </c>
@@ -7351,8 +7351,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="125"/>
-      <c r="B47" s="185"/>
+      <c r="A47" s="150"/>
+      <c r="B47" s="219"/>
       <c r="C47" s="57" t="s">
         <v>63</v>
       </c>
@@ -7364,10 +7364,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="166">
+      <c r="A48" s="210">
         <v>10</v>
       </c>
-      <c r="B48" s="177" t="s">
+      <c r="B48" s="211" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="39" t="s">
@@ -7381,8 +7381,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="166"/>
-      <c r="B49" s="178"/>
+      <c r="A49" s="210"/>
+      <c r="B49" s="212"/>
       <c r="C49" s="39" t="s">
         <v>66</v>
       </c>
@@ -7394,8 +7394,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="166"/>
-      <c r="B50" s="178"/>
+      <c r="A50" s="210"/>
+      <c r="B50" s="212"/>
       <c r="C50" s="39" t="s">
         <v>67</v>
       </c>
@@ -7407,10 +7407,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="165">
+      <c r="A51" s="215">
         <v>11</v>
       </c>
-      <c r="B51" s="163" t="s">
+      <c r="B51" s="220" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="39" t="s">
@@ -7424,8 +7424,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="166"/>
-      <c r="B52" s="164"/>
+      <c r="A52" s="210"/>
+      <c r="B52" s="221"/>
       <c r="C52" s="39" t="s">
         <v>70</v>
       </c>
@@ -7437,8 +7437,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="166"/>
-      <c r="B53" s="164"/>
+      <c r="A53" s="210"/>
+      <c r="B53" s="221"/>
       <c r="C53" s="39" t="s">
         <v>71</v>
       </c>
@@ -7450,8 +7450,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="166"/>
-      <c r="B54" s="164"/>
+      <c r="A54" s="210"/>
+      <c r="B54" s="221"/>
       <c r="C54" s="39" t="s">
         <v>72</v>
       </c>
@@ -7463,10 +7463,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="174">
+      <c r="A55" s="214">
         <v>12</v>
       </c>
-      <c r="B55" s="171" t="s">
+      <c r="B55" s="225" t="s">
         <v>73</v>
       </c>
       <c r="C55" s="57" t="s">
@@ -7480,8 +7480,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="175"/>
-      <c r="B56" s="172"/>
+      <c r="A56" s="228"/>
+      <c r="B56" s="226"/>
       <c r="C56" s="47" t="s">
         <v>75</v>
       </c>
@@ -7493,8 +7493,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="176"/>
-      <c r="B57" s="173"/>
+      <c r="A57" s="229"/>
+      <c r="B57" s="227"/>
       <c r="C57" s="47" t="s">
         <v>76</v>
       </c>
@@ -7523,10 +7523,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="167">
+      <c r="A59" s="222">
         <v>14</v>
       </c>
-      <c r="B59" s="169" t="s">
+      <c r="B59" s="224" t="s">
         <v>80</v>
       </c>
       <c r="C59" s="39" t="s">
@@ -7540,8 +7540,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="168"/>
-      <c r="B60" s="170"/>
+      <c r="A60" s="223"/>
+      <c r="B60" s="208"/>
       <c r="C60" s="7" t="s">
         <v>79</v>
       </c>
@@ -7553,11 +7553,11 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="134" t="s">
+      <c r="A61" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="135"/>
-      <c r="C61" s="136"/>
+      <c r="B61" s="159"/>
+      <c r="C61" s="160"/>
       <c r="D61" s="72" t="s">
         <v>117</v>
       </c>
@@ -7592,77 +7592,77 @@
       <c r="E65" s="19"/>
     </row>
     <row r="66" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="127"/>
-      <c r="B66" s="137"/>
+      <c r="A66" s="161"/>
+      <c r="B66" s="162"/>
       <c r="C66" s="24"/>
       <c r="D66" s="18"/>
       <c r="E66" s="21"/>
     </row>
     <row r="67" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="127"/>
-      <c r="B67" s="137"/>
+      <c r="A67" s="161"/>
+      <c r="B67" s="162"/>
       <c r="C67" s="24"/>
       <c r="D67" s="18"/>
       <c r="E67" s="21"/>
     </row>
     <row r="68" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="127"/>
-      <c r="B68" s="137"/>
+      <c r="A68" s="161"/>
+      <c r="B68" s="162"/>
       <c r="C68" s="24"/>
       <c r="D68" s="18"/>
       <c r="E68" s="22"/>
     </row>
     <row r="69" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="127"/>
-      <c r="B69" s="137"/>
+      <c r="A69" s="161"/>
+      <c r="B69" s="162"/>
       <c r="C69" s="24"/>
       <c r="D69" s="18"/>
       <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="127"/>
-      <c r="B70" s="137"/>
+      <c r="A70" s="161"/>
+      <c r="B70" s="162"/>
       <c r="C70" s="24"/>
       <c r="D70" s="18"/>
       <c r="E70" s="21"/>
     </row>
     <row r="71" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="127"/>
-      <c r="B71" s="137"/>
+      <c r="A71" s="161"/>
+      <c r="B71" s="162"/>
       <c r="C71" s="24"/>
       <c r="D71" s="18"/>
       <c r="E71" s="21"/>
     </row>
     <row r="72" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="127"/>
-      <c r="B72" s="137"/>
+      <c r="A72" s="161"/>
+      <c r="B72" s="162"/>
       <c r="C72" s="24"/>
       <c r="D72" s="18"/>
       <c r="E72" s="21"/>
     </row>
     <row r="73" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="127"/>
-      <c r="B73" s="137"/>
+      <c r="A73" s="161"/>
+      <c r="B73" s="162"/>
       <c r="C73" s="24"/>
       <c r="D73" s="18"/>
       <c r="E73" s="21"/>
     </row>
     <row r="74" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="127"/>
-      <c r="B74" s="137"/>
+      <c r="A74" s="161"/>
+      <c r="B74" s="162"/>
       <c r="C74" s="24"/>
       <c r="D74" s="25"/>
       <c r="E74" s="21"/>
     </row>
     <row r="75" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="127"/>
+      <c r="A75" s="161"/>
       <c r="B75" s="26"/>
       <c r="C75" s="27"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
     </row>
     <row r="76" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="127"/>
+      <c r="A76" s="161"/>
       <c r="B76" s="26"/>
       <c r="C76" s="27"/>
       <c r="D76" s="26"/>
@@ -7942,81 +7942,81 @@
       <c r="E115" s="18"/>
     </row>
     <row r="116" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="127"/>
-      <c r="B116" s="133"/>
+      <c r="A116" s="161"/>
+      <c r="B116" s="164"/>
       <c r="C116" s="24"/>
-      <c r="D116" s="127"/>
-      <c r="E116" s="127"/>
+      <c r="D116" s="161"/>
+      <c r="E116" s="161"/>
     </row>
     <row r="117" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="127"/>
-      <c r="B117" s="127"/>
+      <c r="A117" s="161"/>
+      <c r="B117" s="161"/>
       <c r="C117" s="24"/>
-      <c r="D117" s="127"/>
-      <c r="E117" s="127"/>
+      <c r="D117" s="161"/>
+      <c r="E117" s="161"/>
     </row>
     <row r="118" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="127"/>
-      <c r="B118" s="133"/>
+      <c r="A118" s="161"/>
+      <c r="B118" s="164"/>
       <c r="C118" s="24"/>
-      <c r="D118" s="127"/>
-      <c r="E118" s="127"/>
+      <c r="D118" s="161"/>
+      <c r="E118" s="161"/>
     </row>
     <row r="119" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="127"/>
-      <c r="B119" s="127"/>
+      <c r="A119" s="161"/>
+      <c r="B119" s="161"/>
       <c r="C119" s="24"/>
-      <c r="D119" s="127"/>
-      <c r="E119" s="127"/>
+      <c r="D119" s="161"/>
+      <c r="E119" s="161"/>
     </row>
     <row r="120" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="127"/>
-      <c r="B120" s="127"/>
+      <c r="A120" s="161"/>
+      <c r="B120" s="161"/>
       <c r="C120" s="24"/>
-      <c r="D120" s="127"/>
-      <c r="E120" s="127"/>
+      <c r="D120" s="161"/>
+      <c r="E120" s="161"/>
     </row>
     <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="127"/>
-      <c r="B121" s="133"/>
+      <c r="A121" s="161"/>
+      <c r="B121" s="164"/>
       <c r="C121" s="24"/>
-      <c r="D121" s="127"/>
-      <c r="E121" s="127"/>
+      <c r="D121" s="161"/>
+      <c r="E121" s="161"/>
     </row>
     <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="127"/>
-      <c r="B122" s="127"/>
+      <c r="A122" s="161"/>
+      <c r="B122" s="161"/>
       <c r="C122" s="24"/>
-      <c r="D122" s="127"/>
-      <c r="E122" s="127"/>
+      <c r="D122" s="161"/>
+      <c r="E122" s="161"/>
     </row>
     <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="127"/>
-      <c r="B123" s="133"/>
+      <c r="A123" s="161"/>
+      <c r="B123" s="164"/>
       <c r="C123" s="24"/>
-      <c r="D123" s="127"/>
-      <c r="E123" s="127"/>
+      <c r="D123" s="161"/>
+      <c r="E123" s="161"/>
     </row>
     <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="127"/>
-      <c r="B124" s="127"/>
+      <c r="A124" s="161"/>
+      <c r="B124" s="161"/>
       <c r="C124" s="24"/>
-      <c r="D124" s="127"/>
-      <c r="E124" s="127"/>
+      <c r="D124" s="161"/>
+      <c r="E124" s="161"/>
     </row>
     <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="127"/>
-      <c r="B125" s="127"/>
+      <c r="A125" s="161"/>
+      <c r="B125" s="161"/>
       <c r="C125" s="24"/>
-      <c r="D125" s="127"/>
-      <c r="E125" s="127"/>
+      <c r="D125" s="161"/>
+      <c r="E125" s="161"/>
     </row>
     <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="18"/>
       <c r="B126" s="30"/>
       <c r="C126" s="24"/>
-      <c r="D126" s="127"/>
-      <c r="E126" s="127"/>
+      <c r="D126" s="161"/>
+      <c r="E126" s="161"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="33"/>
@@ -8958,12 +8958,45 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D116:E117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="D118:E120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:E122"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="D123:E125"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A7:E7"/>
@@ -8977,45 +9010,12 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D116:E117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="D118:E120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:E122"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="D123:E125"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:E6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9043,139 +9043,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="211"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="171"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="212"/>
-      <c r="B2" s="213"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="215"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="175"/>
     </row>
     <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="216" t="s">
+      <c r="A4" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="192"/>
-      <c r="C4" s="217" t="s">
+      <c r="B4" s="177"/>
+      <c r="C4" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
     </row>
     <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="218" t="s">
+      <c r="A5" s="181" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="219"/>
-      <c r="C5" s="222" t="s">
+      <c r="B5" s="182"/>
+      <c r="C5" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="223"/>
-      <c r="E5" s="223"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
     </row>
     <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="220"/>
-      <c r="B6" s="221"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="191" t="s">
+      <c r="A7" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="192"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
     </row>
     <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="190" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
     </row>
     <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="191" t="s">
+      <c r="A9" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="192"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
     </row>
     <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="197"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="197"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="191" t="s">
+      <c r="A11" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="192"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="192"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
     </row>
     <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="199" t="s">
+      <c r="A12" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="197"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="197"/>
-      <c r="E12" s="197"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
     </row>
     <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="200"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
     </row>
     <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="199" t="s">
+      <c r="A14" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="203"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
     </row>
     <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191" t="s">
+      <c r="A15" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="205"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="205"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="82" t="s">
@@ -9195,10 +9195,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="138">
+      <c r="A17" s="125">
         <v>1</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="247" t="s">
         <v>119</v>
       </c>
       <c r="C17" s="84" t="s">
@@ -9212,8 +9212,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="138"/>
-      <c r="B18" s="129"/>
+      <c r="A18" s="125"/>
+      <c r="B18" s="247"/>
       <c r="C18" s="84" t="s">
         <v>121</v>
       </c>
@@ -9225,8 +9225,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="138"/>
-      <c r="B19" s="129"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="247"/>
       <c r="C19" s="84" t="s">
         <v>189</v>
       </c>
@@ -9238,8 +9238,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="138"/>
-      <c r="B20" s="129"/>
+      <c r="A20" s="125"/>
+      <c r="B20" s="247"/>
       <c r="C20" s="84" t="s">
         <v>122</v>
       </c>
@@ -9251,10 +9251,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="125">
+      <c r="A21" s="150">
         <v>2</v>
       </c>
-      <c r="B21" s="227" t="s">
+      <c r="B21" s="230" t="s">
         <v>211</v>
       </c>
       <c r="C21" s="84" t="s">
@@ -9268,8 +9268,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="125"/>
-      <c r="B22" s="227"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="230"/>
       <c r="C22" s="84" t="s">
         <v>165</v>
       </c>
@@ -9281,8 +9281,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="125"/>
-      <c r="B23" s="227"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="230"/>
       <c r="C23" s="84" t="s">
         <v>166</v>
       </c>
@@ -9294,10 +9294,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="138">
+      <c r="A24" s="125">
         <v>3</v>
       </c>
-      <c r="B24" s="227" t="s">
+      <c r="B24" s="230" t="s">
         <v>210</v>
       </c>
       <c r="C24" s="84" t="s">
@@ -9311,8 +9311,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="138"/>
-      <c r="B25" s="227"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="230"/>
       <c r="C25" s="84" t="s">
         <v>167</v>
       </c>
@@ -9324,8 +9324,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="138"/>
-      <c r="B26" s="227"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="230"/>
       <c r="C26" s="84" t="s">
         <v>133</v>
       </c>
@@ -9337,10 +9337,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="138">
+      <c r="A27" s="125">
         <v>4</v>
       </c>
-      <c r="B27" s="227" t="s">
+      <c r="B27" s="230" t="s">
         <v>212</v>
       </c>
       <c r="C27" s="84" t="s">
@@ -9354,8 +9354,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="234"/>
-      <c r="B28" s="228"/>
+      <c r="A28" s="236"/>
+      <c r="B28" s="241"/>
       <c r="C28" s="100" t="s">
         <v>172</v>
       </c>
@@ -9367,8 +9367,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="138"/>
-      <c r="B29" s="227"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="230"/>
       <c r="C29" s="51" t="s">
         <v>205</v>
       </c>
@@ -9380,10 +9380,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="138">
+      <c r="A30" s="125">
         <v>5</v>
       </c>
-      <c r="B30" s="229" t="s">
+      <c r="B30" s="242" t="s">
         <v>209</v>
       </c>
       <c r="C30" s="51" t="s">
@@ -9397,8 +9397,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="138"/>
-      <c r="B31" s="229"/>
+      <c r="A31" s="125"/>
+      <c r="B31" s="242"/>
       <c r="C31" s="51" t="s">
         <v>173</v>
       </c>
@@ -9410,8 +9410,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="234"/>
-      <c r="B32" s="230"/>
+      <c r="A32" s="236"/>
+      <c r="B32" s="243"/>
       <c r="C32" s="101" t="s">
         <v>174</v>
       </c>
@@ -9423,8 +9423,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="234"/>
-      <c r="B33" s="230"/>
+      <c r="A33" s="236"/>
+      <c r="B33" s="243"/>
       <c r="C33" s="51" t="s">
         <v>178</v>
       </c>
@@ -9436,8 +9436,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="234"/>
-      <c r="B34" s="230"/>
+      <c r="A34" s="236"/>
+      <c r="B34" s="243"/>
       <c r="C34" s="102" t="s">
         <v>179</v>
       </c>
@@ -9449,8 +9449,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="234"/>
-      <c r="B35" s="230"/>
+      <c r="A35" s="236"/>
+      <c r="B35" s="243"/>
       <c r="C35" s="102" t="s">
         <v>180</v>
       </c>
@@ -9462,8 +9462,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="234"/>
-      <c r="B36" s="230"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="243"/>
       <c r="C36" s="102" t="s">
         <v>181</v>
       </c>
@@ -9475,8 +9475,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="234"/>
-      <c r="B37" s="230"/>
+      <c r="A37" s="236"/>
+      <c r="B37" s="243"/>
       <c r="C37" s="102" t="s">
         <v>193</v>
       </c>
@@ -9488,8 +9488,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="138"/>
-      <c r="B38" s="229"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="242"/>
       <c r="C38" s="101" t="s">
         <v>184</v>
       </c>
@@ -9501,8 +9501,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="138"/>
-      <c r="B39" s="229"/>
+      <c r="A39" s="125"/>
+      <c r="B39" s="242"/>
       <c r="C39" s="51" t="s">
         <v>185</v>
       </c>
@@ -9514,10 +9514,10 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="235">
+      <c r="A40" s="237">
         <v>6</v>
       </c>
-      <c r="B40" s="237" t="s">
+      <c r="B40" s="231" t="s">
         <v>208</v>
       </c>
       <c r="C40" s="51" t="s">
@@ -9531,8 +9531,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="236"/>
-      <c r="B41" s="238"/>
+      <c r="A41" s="238"/>
+      <c r="B41" s="232"/>
       <c r="C41" s="51" t="s">
         <v>136</v>
       </c>
@@ -9544,8 +9544,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="236"/>
-      <c r="B42" s="238"/>
+      <c r="A42" s="238"/>
+      <c r="B42" s="232"/>
       <c r="C42" s="51" t="s">
         <v>196</v>
       </c>
@@ -9557,8 +9557,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="236"/>
-      <c r="B43" s="238"/>
+      <c r="A43" s="238"/>
+      <c r="B43" s="232"/>
       <c r="C43" s="51" t="s">
         <v>137</v>
       </c>
@@ -9570,8 +9570,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="147"/>
-      <c r="B44" s="239"/>
+      <c r="A44" s="149"/>
+      <c r="B44" s="233"/>
       <c r="C44" s="51" t="s">
         <v>187</v>
       </c>
@@ -9583,10 +9583,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="242">
+      <c r="A45" s="155">
         <v>7</v>
       </c>
-      <c r="B45" s="240" t="s">
+      <c r="B45" s="234" t="s">
         <v>164</v>
       </c>
       <c r="C45" s="51" t="s">
@@ -9600,8 +9600,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="175"/>
-      <c r="B46" s="241"/>
+      <c r="A46" s="228"/>
+      <c r="B46" s="235"/>
       <c r="C46" s="51" t="s">
         <v>200</v>
       </c>
@@ -9613,8 +9613,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="175"/>
-      <c r="B47" s="241"/>
+      <c r="A47" s="228"/>
+      <c r="B47" s="235"/>
       <c r="C47" s="101" t="s">
         <v>138</v>
       </c>
@@ -9626,10 +9626,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="138">
+      <c r="A48" s="125">
         <v>8</v>
       </c>
-      <c r="B48" s="227" t="s">
+      <c r="B48" s="230" t="s">
         <v>199</v>
       </c>
       <c r="C48" s="51" t="s">
@@ -9643,8 +9643,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="138"/>
-      <c r="B49" s="227"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="230"/>
       <c r="C49" s="84" t="s">
         <v>198</v>
       </c>
@@ -9656,8 +9656,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="138"/>
-      <c r="B50" s="227"/>
+      <c r="A50" s="125"/>
+      <c r="B50" s="230"/>
       <c r="C50" s="84" t="s">
         <v>139</v>
       </c>
@@ -9669,10 +9669,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="138">
+      <c r="A51" s="125">
         <v>9</v>
       </c>
-      <c r="B51" s="226" t="s">
+      <c r="B51" s="244" t="s">
         <v>207</v>
       </c>
       <c r="C51" s="84" t="s">
@@ -9686,8 +9686,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="138"/>
-      <c r="B52" s="226"/>
+      <c r="A52" s="125"/>
+      <c r="B52" s="244"/>
       <c r="C52" s="84" t="s">
         <v>141</v>
       </c>
@@ -9699,10 +9699,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="125">
+      <c r="A53" s="150">
         <v>10</v>
       </c>
-      <c r="B53" s="226" t="s">
+      <c r="B53" s="244" t="s">
         <v>206</v>
       </c>
       <c r="C53" s="84" t="s">
@@ -9714,8 +9714,8 @@
       <c r="E53" s="56"/>
     </row>
     <row r="54" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="174"/>
-      <c r="B54" s="231"/>
+      <c r="A54" s="214"/>
+      <c r="B54" s="245"/>
       <c r="C54" s="86" t="s">
         <v>143</v>
       </c>
@@ -9756,72 +9756,72 @@
       <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="127"/>
-      <c r="B58" s="225"/>
+      <c r="A58" s="161"/>
+      <c r="B58" s="246"/>
       <c r="C58" s="89"/>
       <c r="D58" s="75"/>
       <c r="E58" s="46"/>
       <c r="F58" s="26"/>
     </row>
     <row r="59" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="127"/>
-      <c r="B59" s="225"/>
+      <c r="A59" s="161"/>
+      <c r="B59" s="246"/>
       <c r="C59" s="89"/>
       <c r="D59" s="75"/>
       <c r="E59" s="46"/>
       <c r="F59" s="26"/>
     </row>
     <row r="60" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="127"/>
-      <c r="B60" s="225"/>
+      <c r="A60" s="161"/>
+      <c r="B60" s="246"/>
       <c r="C60" s="89"/>
       <c r="D60" s="75"/>
       <c r="E60" s="46"/>
       <c r="F60" s="26"/>
     </row>
     <row r="61" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="127"/>
-      <c r="B61" s="225"/>
+      <c r="A61" s="161"/>
+      <c r="B61" s="246"/>
       <c r="C61" s="89"/>
       <c r="D61" s="75"/>
       <c r="E61" s="46"/>
       <c r="F61" s="26"/>
     </row>
     <row r="62" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="127"/>
-      <c r="B62" s="225"/>
+      <c r="A62" s="161"/>
+      <c r="B62" s="246"/>
       <c r="C62" s="89"/>
       <c r="D62" s="75"/>
       <c r="E62" s="46"/>
       <c r="F62" s="26"/>
     </row>
     <row r="63" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="168"/>
-      <c r="B63" s="232"/>
+      <c r="A63" s="223"/>
+      <c r="B63" s="239"/>
       <c r="C63" s="89"/>
       <c r="D63" s="75"/>
       <c r="E63" s="87"/>
       <c r="F63" s="26"/>
     </row>
     <row r="64" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="168"/>
-      <c r="B64" s="232"/>
+      <c r="A64" s="223"/>
+      <c r="B64" s="239"/>
       <c r="C64" s="89"/>
       <c r="D64" s="75"/>
       <c r="E64" s="87"/>
       <c r="F64" s="26"/>
     </row>
     <row r="65" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="168"/>
-      <c r="B65" s="232"/>
+      <c r="A65" s="223"/>
+      <c r="B65" s="239"/>
       <c r="C65" s="89"/>
       <c r="D65" s="75"/>
       <c r="E65" s="87"/>
       <c r="F65" s="26"/>
     </row>
     <row r="66" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="168"/>
-      <c r="B66" s="232"/>
+      <c r="A66" s="223"/>
+      <c r="B66" s="239"/>
       <c r="C66" s="90"/>
       <c r="D66" s="75"/>
       <c r="E66" s="87"/>
@@ -9836,9 +9836,9 @@
       <c r="F67" s="26"/>
     </row>
     <row r="68" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="233"/>
-      <c r="B68" s="137"/>
-      <c r="C68" s="137"/>
+      <c r="A68" s="240"/>
+      <c r="B68" s="162"/>
+      <c r="C68" s="162"/>
       <c r="D68" s="73"/>
       <c r="E68" s="21"/>
       <c r="F68" s="26"/>
@@ -9876,79 +9876,79 @@
       <c r="F72" s="26"/>
     </row>
     <row r="73" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="127"/>
-      <c r="B73" s="137"/>
+      <c r="A73" s="161"/>
+      <c r="B73" s="162"/>
       <c r="C73" s="24"/>
       <c r="D73" s="73"/>
       <c r="E73" s="21"/>
       <c r="F73" s="26"/>
     </row>
     <row r="74" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="127"/>
-      <c r="B74" s="137"/>
+      <c r="A74" s="161"/>
+      <c r="B74" s="162"/>
       <c r="C74" s="24"/>
       <c r="D74" s="73"/>
       <c r="E74" s="21"/>
       <c r="F74" s="26"/>
     </row>
     <row r="75" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="127"/>
-      <c r="B75" s="137"/>
+      <c r="A75" s="161"/>
+      <c r="B75" s="162"/>
       <c r="C75" s="24"/>
       <c r="D75" s="73"/>
       <c r="E75" s="22"/>
       <c r="F75" s="26"/>
     </row>
     <row r="76" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="127"/>
-      <c r="B76" s="137"/>
+      <c r="A76" s="161"/>
+      <c r="B76" s="162"/>
       <c r="C76" s="24"/>
       <c r="D76" s="73"/>
       <c r="E76" s="21"/>
       <c r="F76" s="26"/>
     </row>
     <row r="77" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="127"/>
-      <c r="B77" s="137"/>
+      <c r="A77" s="161"/>
+      <c r="B77" s="162"/>
       <c r="C77" s="24"/>
       <c r="D77" s="73"/>
       <c r="E77" s="21"/>
       <c r="F77" s="26"/>
     </row>
     <row r="78" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="127"/>
-      <c r="B78" s="137"/>
+      <c r="A78" s="161"/>
+      <c r="B78" s="162"/>
       <c r="C78" s="24"/>
       <c r="D78" s="73"/>
       <c r="E78" s="21"/>
       <c r="F78" s="26"/>
     </row>
     <row r="79" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="127"/>
-      <c r="B79" s="137"/>
+      <c r="A79" s="161"/>
+      <c r="B79" s="162"/>
       <c r="C79" s="24"/>
       <c r="D79" s="73"/>
       <c r="E79" s="21"/>
       <c r="F79" s="26"/>
     </row>
     <row r="80" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="127"/>
-      <c r="B80" s="137"/>
+      <c r="A80" s="161"/>
+      <c r="B80" s="162"/>
       <c r="C80" s="24"/>
       <c r="D80" s="73"/>
       <c r="E80" s="21"/>
       <c r="F80" s="26"/>
     </row>
     <row r="81" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="127"/>
-      <c r="B81" s="137"/>
+      <c r="A81" s="161"/>
+      <c r="B81" s="162"/>
       <c r="C81" s="24"/>
       <c r="D81" s="25"/>
       <c r="E81" s="21"/>
       <c r="F81" s="26"/>
     </row>
     <row r="82" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="127"/>
+      <c r="A82" s="161"/>
       <c r="B82" s="26"/>
       <c r="C82" s="27"/>
       <c r="D82" s="26"/>
@@ -9956,7 +9956,7 @@
       <c r="F82" s="26"/>
     </row>
     <row r="83" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="127"/>
+      <c r="A83" s="161"/>
       <c r="B83" s="26"/>
       <c r="C83" s="27"/>
       <c r="D83" s="26"/>
@@ -10244,81 +10244,81 @@
       <c r="E122" s="36"/>
     </row>
     <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="127"/>
-      <c r="B123" s="133"/>
+      <c r="A123" s="161"/>
+      <c r="B123" s="164"/>
       <c r="C123" s="24"/>
-      <c r="D123" s="127"/>
-      <c r="E123" s="127"/>
+      <c r="D123" s="161"/>
+      <c r="E123" s="161"/>
     </row>
     <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="127"/>
-      <c r="B124" s="127"/>
+      <c r="A124" s="161"/>
+      <c r="B124" s="161"/>
       <c r="C124" s="24"/>
-      <c r="D124" s="127"/>
-      <c r="E124" s="127"/>
+      <c r="D124" s="161"/>
+      <c r="E124" s="161"/>
     </row>
     <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="127"/>
-      <c r="B125" s="133"/>
+      <c r="A125" s="161"/>
+      <c r="B125" s="164"/>
       <c r="C125" s="24"/>
-      <c r="D125" s="127"/>
-      <c r="E125" s="127"/>
+      <c r="D125" s="161"/>
+      <c r="E125" s="161"/>
     </row>
     <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="127"/>
-      <c r="B126" s="127"/>
+      <c r="A126" s="161"/>
+      <c r="B126" s="161"/>
       <c r="C126" s="24"/>
-      <c r="D126" s="127"/>
-      <c r="E126" s="127"/>
+      <c r="D126" s="161"/>
+      <c r="E126" s="161"/>
     </row>
     <row r="127" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="127"/>
-      <c r="B127" s="127"/>
+      <c r="A127" s="161"/>
+      <c r="B127" s="161"/>
       <c r="C127" s="24"/>
-      <c r="D127" s="127"/>
-      <c r="E127" s="127"/>
+      <c r="D127" s="161"/>
+      <c r="E127" s="161"/>
     </row>
     <row r="128" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="127"/>
-      <c r="B128" s="133"/>
+      <c r="A128" s="161"/>
+      <c r="B128" s="164"/>
       <c r="C128" s="24"/>
-      <c r="D128" s="127"/>
-      <c r="E128" s="127"/>
+      <c r="D128" s="161"/>
+      <c r="E128" s="161"/>
     </row>
     <row r="129" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="127"/>
-      <c r="B129" s="127"/>
+      <c r="A129" s="161"/>
+      <c r="B129" s="161"/>
       <c r="C129" s="24"/>
-      <c r="D129" s="127"/>
-      <c r="E129" s="127"/>
+      <c r="D129" s="161"/>
+      <c r="E129" s="161"/>
     </row>
     <row r="130" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="127"/>
-      <c r="B130" s="133"/>
+      <c r="A130" s="161"/>
+      <c r="B130" s="164"/>
       <c r="C130" s="24"/>
-      <c r="D130" s="127"/>
-      <c r="E130" s="127"/>
+      <c r="D130" s="161"/>
+      <c r="E130" s="161"/>
     </row>
     <row r="131" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="127"/>
-      <c r="B131" s="127"/>
+      <c r="A131" s="161"/>
+      <c r="B131" s="161"/>
       <c r="C131" s="24"/>
-      <c r="D131" s="127"/>
-      <c r="E131" s="127"/>
+      <c r="D131" s="161"/>
+      <c r="E131" s="161"/>
     </row>
     <row r="132" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="127"/>
-      <c r="B132" s="127"/>
+      <c r="A132" s="161"/>
+      <c r="B132" s="161"/>
       <c r="C132" s="24"/>
-      <c r="D132" s="127"/>
-      <c r="E132" s="127"/>
+      <c r="D132" s="161"/>
+      <c r="E132" s="161"/>
     </row>
     <row r="133" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="36"/>
       <c r="B133" s="38"/>
       <c r="C133" s="24"/>
-      <c r="D133" s="127"/>
-      <c r="E133" s="127"/>
+      <c r="D133" s="161"/>
+      <c r="E133" s="161"/>
     </row>
     <row r="134" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="33"/>
@@ -11260,18 +11260,43 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A73:A81"/>
+    <mergeCell ref="B73:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="B130:B132"/>
     <mergeCell ref="D130:E132"/>
     <mergeCell ref="D133:E133"/>
     <mergeCell ref="D123:E124"/>
@@ -11281,43 +11306,18 @@
     <mergeCell ref="A128:A129"/>
     <mergeCell ref="B128:B129"/>
     <mergeCell ref="D128:E129"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A73:A81"/>
-    <mergeCell ref="B73:B81"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A45:A47"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11336,10 +11336,10 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="129" spans="2:6" ht="138" x14ac:dyDescent="0.15">
-      <c r="B129" s="138">
+      <c r="B129" s="125">
         <v>2</v>
       </c>
-      <c r="C129" s="129" t="s">
+      <c r="C129" s="247" t="s">
         <v>163</v>
       </c>
       <c r="D129" s="84" t="s">
@@ -11351,8 +11351,8 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="69" x14ac:dyDescent="0.15">
-      <c r="B130" s="138"/>
-      <c r="C130" s="129"/>
+      <c r="B130" s="125"/>
+      <c r="C130" s="247"/>
       <c r="D130" s="84" t="s">
         <v>124</v>
       </c>
@@ -11362,8 +11362,8 @@
       </c>
     </row>
     <row r="131" spans="2:6" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="B131" s="138"/>
-      <c r="C131" s="129"/>
+      <c r="B131" s="125"/>
+      <c r="C131" s="247"/>
       <c r="D131" s="84" t="s">
         <v>125</v>
       </c>
@@ -11373,8 +11373,8 @@
       </c>
     </row>
     <row r="132" spans="2:6" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="B132" s="138"/>
-      <c r="C132" s="129"/>
+      <c r="B132" s="125"/>
+      <c r="C132" s="247"/>
       <c r="D132" s="84" t="s">
         <v>126</v>
       </c>
@@ -11384,46 +11384,46 @@
       </c>
     </row>
     <row r="133" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B133" s="125">
+      <c r="B133" s="150">
         <v>3</v>
       </c>
-      <c r="C133" s="227" t="s">
+      <c r="C133" s="230" t="s">
         <v>162</v>
       </c>
       <c r="D133" s="84" t="s">
         <v>127</v>
       </c>
       <c r="E133" s="66"/>
-      <c r="F133" s="243" t="s">
+      <c r="F133" s="248" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="134" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B134" s="125"/>
-      <c r="C134" s="227"/>
+      <c r="B134" s="150"/>
+      <c r="C134" s="230"/>
       <c r="D134" s="84" t="s">
         <v>128</v>
       </c>
       <c r="E134" s="66"/>
-      <c r="F134" s="244"/>
+      <c r="F134" s="249"/>
     </row>
     <row r="135" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B135" s="125"/>
-      <c r="C135" s="227"/>
+      <c r="B135" s="150"/>
+      <c r="C135" s="230"/>
       <c r="D135" s="84" t="s">
         <v>129</v>
       </c>
       <c r="E135" s="66"/>
-      <c r="F135" s="244"/>
+      <c r="F135" s="249"/>
     </row>
     <row r="136" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B136" s="125"/>
-      <c r="C136" s="227"/>
+      <c r="B136" s="150"/>
+      <c r="C136" s="230"/>
       <c r="D136" s="84" t="s">
         <v>130</v>
       </c>
       <c r="E136" s="66"/>
-      <c r="F136" s="245"/>
+      <c r="F136" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="5">
